--- a/codepdf/sql.xlsx
+++ b/codepdf/sql.xlsx
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启动类，通过spring boot启动。 ioc，aop功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,12 +43,75 @@
     <t>类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>启动类，通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>spring boot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">启动。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ioc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +135,6 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -126,24 +178,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,38 +476,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="160" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="175" zoomScaleNormal="130" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="60" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
